--- a/results/sonarcloud_rq1_rq4.xlsx
+++ b/results/sonarcloud_rq1_rq4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkantek\Desktop\muni-priv\fi-dp\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118D46AE-2A08-4AEF-B3F9-05C9EBAF26F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924BD6C1-B2D0-46CA-A187-63BECAFAAA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="21600" xr2:uid="{CC849859-2A65-46F3-9F5E-3F5B5DFBACE3}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21600" xr2:uid="{CC849859-2A65-46F3-9F5E-3F5B5DFBACE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="24">
   <si>
     <t>GitHub Copilot</t>
   </si>
@@ -91,6 +91,24 @@
   <si>
     <t>unique M3</t>
   </si>
+  <si>
+    <t>Total M1</t>
+  </si>
+  <si>
+    <t>Total M3</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
 </sst>
 </file>
 
@@ -128,10 +146,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE20154-C5F9-4036-9866-3883FEF127A4}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,46 +491,46 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="U2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -595,21 +613,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f>U4/15</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f>V4/15</f>
         <v>0.4</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f>W4/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -683,21 +701,21 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>U5/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>V5/15</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f t="shared" ref="G5:G6" si="0">W5/15</f>
         <v>0</v>
       </c>
@@ -771,21 +789,21 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C5:C6" si="6">U6/15</f>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6" si="6">U6/15</f>
         <v>0</v>
       </c>
       <c r="D6">
         <v>13</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>V6/15</f>
         <v>0.4</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -962,46 +980,46 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="U11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="U11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1084,21 +1102,21 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <f>U13/15</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <f>V13/15</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f>W13/15</f>
         <v>0.26666666666666666</v>
       </c>
@@ -1172,21 +1190,21 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f t="shared" ref="C14:C15" si="8">U14/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" ref="E14:E15" si="9">V14/15</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f t="shared" ref="G14:G15" si="10">W14/15</f>
         <v>0.2</v>
       </c>
@@ -1260,21 +1278,21 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f t="shared" si="8"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
       <c r="F15">
         <v>9</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
@@ -1451,46 +1469,46 @@
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="U20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="U20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -1573,7 +1591,7 @@
       <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <f>U22/18</f>
         <v>0.27777777777777779</v>
       </c>
@@ -1587,7 +1605,7 @@
       <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <f>W22/18</f>
         <v>0.16666666666666666</v>
       </c>
@@ -1661,7 +1679,7 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <f t="shared" ref="C23:C24" si="17">U23/18</f>
         <v>0.16666666666666666</v>
       </c>
@@ -1675,7 +1693,7 @@
       <c r="F23">
         <v>4</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <f t="shared" ref="G23:G24" si="19">W23/18</f>
         <v>0.16666666666666666</v>
       </c>
@@ -1749,7 +1767,7 @@
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <f t="shared" si="17"/>
         <v>0.1111111111111111</v>
       </c>
@@ -1763,7 +1781,7 @@
       <c r="F24">
         <v>3</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <f t="shared" si="19"/>
         <v>0.1111111111111111</v>
       </c>
@@ -1940,46 +1958,46 @@
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="U29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="U29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -2423,8 +2441,139 @@
         <v>37</v>
       </c>
     </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <f>B4+F4+J4+N4+B13+F13+J13+N13+B22+F22+J22+N22+B31+F31+J31+N31</f>
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <f>D4+H4+L4+P4+D13+H13+L13+P13+D22+H22+L22+P22+D31+H31+L31+P31</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <f>B5+F5+J5+N5+B14+F14+J14+N14+B23+F23+J23+N23+B32+F32+J32+N32</f>
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C40" si="35">D5+H5+L5+P5+D14+H14+L14+P14+D23+H23+L23+P23+D32+H32+L32+P32</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <f>B6+F6+J6+N6+B15+F15+J15+N15+B24+F24+J24+N24+B33+F33+J33+N33</f>
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="35"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <f>B7+F7+J7+N7</f>
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <f>D7+H7+L7+P7</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <f>B16+F16+J16+N16</f>
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <f>D16+H16+L16+P16</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <f>B25+F25+J25+N25</f>
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <f>D25+H25+L25+P25</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <f>B34+F34+J34+N34</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>D34+H34+L34+P34</f>
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="AA29:AB29"/>
     <mergeCell ref="U20:V20"/>
@@ -2433,30 +2582,6 @@
     <mergeCell ref="AA20:AB20"/>
     <mergeCell ref="U29:V29"/>
     <mergeCell ref="W29:X29"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
